--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1212818.144569095</v>
+        <v>-1215674.978187152</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>9.081883719168658</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.1137516819559</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>76.34433687342782</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>145.5325120684722</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.21856814427309</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.04495032503247</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>171.6335933247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +975,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>28.33708868093411</v>
+        <v>162.6961584559721</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>156.7171318380602</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>182.0466682725274</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>189.9963507702246</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>199.0928861991144</v>
       </c>
       <c r="G8" t="n">
-        <v>11.62928536743864</v>
+        <v>411.6292853674386</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.8540603081713</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.8551256463401</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.3112787706134</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0517767360208</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>73.23985767767297</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1230,7 +1230,7 @@
         <v>93.25314017734232</v>
       </c>
       <c r="I9" t="n">
-        <v>21.72583954334965</v>
+        <v>21.72583954334969</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.7067833397397</v>
+        <v>135.1754246503784</v>
       </c>
       <c r="T9" t="n">
         <v>192.2425046120048</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>127.585513930863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.203023135801</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.300213904602</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>72.50003218511077</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2291502199263</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.5517498754641</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801232</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>13.13925136339756</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4028,10 +4028,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
       <c r="C2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
       <c r="D2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
       <c r="E2" t="n">
-        <v>655.4237966384044</v>
+        <v>36.52595090141983</v>
       </c>
       <c r="F2" t="n">
-        <v>655.4237966384044</v>
+        <v>29.58045015221636</v>
       </c>
       <c r="G2" t="n">
-        <v>397.7617987360789</v>
+        <v>29.58045015221636</v>
       </c>
       <c r="H2" t="n">
-        <v>140.0998008337534</v>
+        <v>29.58045015221636</v>
       </c>
       <c r="I2" t="n">
         <v>20.40683023386418</v>
@@ -4340,13 +4340,13 @@
         <v>450.2323034685007</v>
       </c>
       <c r="N2" t="n">
-        <v>702.7668276125698</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O2" t="n">
-        <v>874.6230664220874</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P2" t="n">
-        <v>985.3573916716139</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q2" t="n">
         <v>1020.341511693209</v>
@@ -4355,25 +4355,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S2" t="n">
-        <v>909.1154998932535</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T2" t="n">
-        <v>909.1154998932535</v>
+        <v>805.54164996092</v>
       </c>
       <c r="U2" t="n">
-        <v>655.4237966384044</v>
+        <v>551.8499467060709</v>
       </c>
       <c r="V2" t="n">
-        <v>655.4237966384044</v>
+        <v>551.8499467060709</v>
       </c>
       <c r="W2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
       <c r="X2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
       <c r="Y2" t="n">
-        <v>655.4237966384044</v>
+        <v>294.1879488037454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.5250798627418</v>
+        <v>427.8711141185681</v>
       </c>
       <c r="C3" t="n">
-        <v>65.07205058161477</v>
+        <v>350.7556223272269</v>
       </c>
       <c r="D3" t="n">
-        <v>65.07205058161477</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="E3" t="n">
-        <v>65.07205058161477</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="F3" t="n">
-        <v>65.07205058161477</v>
+        <v>203.7530848843257</v>
       </c>
       <c r="G3" t="n">
-        <v>65.07205058161477</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="H3" t="n">
-        <v>65.07205058161477</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I3" t="n">
         <v>20.40683023386418</v>
       </c>
       <c r="J3" t="n">
-        <v>139.0660820907598</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K3" t="n">
-        <v>206.6739017541169</v>
+        <v>214.0189542722091</v>
       </c>
       <c r="L3" t="n">
-        <v>343.9034997698108</v>
+        <v>351.2485522879031</v>
       </c>
       <c r="M3" t="n">
-        <v>523.4008361244156</v>
+        <v>530.7458886425079</v>
       </c>
       <c r="N3" t="n">
-        <v>722.0575777770803</v>
+        <v>729.4026302951726</v>
       </c>
       <c r="O3" t="n">
-        <v>881.5698904458409</v>
+        <v>888.9149429639332</v>
       </c>
       <c r="P3" t="n">
-        <v>990.2595179731397</v>
+        <v>997.604570491232</v>
       </c>
       <c r="Q3" t="n">
         <v>1020.341511693209</v>
@@ -4434,25 +4434,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.341511693209</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="T3" t="n">
-        <v>823.3522158532966</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="U3" t="n">
-        <v>823.3522158532966</v>
+        <v>870.8747225558437</v>
       </c>
       <c r="V3" t="n">
-        <v>823.3522158532966</v>
+        <v>635.722614324101</v>
       </c>
       <c r="W3" t="n">
-        <v>823.3522158532966</v>
+        <v>635.722614324101</v>
       </c>
       <c r="X3" t="n">
-        <v>615.5007156477637</v>
+        <v>427.8711141185681</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.7404168828098</v>
+        <v>427.8711141185681</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.0559996804715</v>
+        <v>243.1128029324517</v>
       </c>
       <c r="C4" t="n">
-        <v>509.0559996804715</v>
+        <v>243.1128029324517</v>
       </c>
       <c r="D4" t="n">
-        <v>509.0559996804715</v>
+        <v>243.1128029324517</v>
       </c>
       <c r="E4" t="n">
-        <v>361.1429060980784</v>
+        <v>95.19970935005861</v>
       </c>
       <c r="F4" t="n">
-        <v>361.1429060980784</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G4" t="n">
-        <v>192.5360610934617</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H4" t="n">
-        <v>38.2814179932268</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I4" t="n">
-        <v>38.2814179932268</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J4" t="n">
         <v>20.40683023386418</v>
@@ -4516,22 +4516,22 @@
         <v>682.423265665017</v>
       </c>
       <c r="T4" t="n">
-        <v>509.0559996804715</v>
+        <v>682.423265665017</v>
       </c>
       <c r="U4" t="n">
-        <v>509.0559996804715</v>
+        <v>682.423265665017</v>
       </c>
       <c r="V4" t="n">
-        <v>509.0559996804715</v>
+        <v>682.423265665017</v>
       </c>
       <c r="W4" t="n">
-        <v>509.0559996804715</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="X4" t="n">
-        <v>509.0559996804715</v>
+        <v>424.7612677626914</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.0559996804715</v>
+        <v>424.7612677626914</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>248.5058752901495</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4647,22 +4647,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4674,22 +4674,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>1026.232198106091</v>
+        <v>693.7068876415308</v>
       </c>
       <c r="W6" t="n">
-        <v>1026.232198106091</v>
+        <v>693.7068876415308</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>693.7068876415308</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>485.9465888765768</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>294.598167514283</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>294.598167514283</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>560.975824081461</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>560.975824081461</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9699964984211</v>
+        <v>294.598167514283</v>
       </c>
       <c r="X7" t="n">
-        <v>870.9699964984211</v>
+        <v>294.598167514283</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>294.598167514283</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.8275570130832</v>
+        <v>1398.867784782139</v>
       </c>
       <c r="C8" t="n">
-        <v>259.8650400726714</v>
+        <v>1398.867784782139</v>
       </c>
       <c r="D8" t="n">
-        <v>67.94953424416177</v>
+        <v>1040.602086175388</v>
       </c>
       <c r="E8" t="n">
-        <v>67.94953424416177</v>
+        <v>1040.602086175388</v>
       </c>
       <c r="F8" t="n">
-        <v>61.00403349495829</v>
+        <v>839.4981607217375</v>
       </c>
       <c r="G8" t="n">
-        <v>49.25728059855562</v>
+        <v>423.7110037849308</v>
       </c>
       <c r="H8" t="n">
-        <v>49.25728059855562</v>
+        <v>118.8079125645557</v>
       </c>
       <c r="I8" t="n">
-        <v>49.25728059855562</v>
+        <v>49.25728059855555</v>
       </c>
       <c r="J8" t="n">
-        <v>178.6836977454791</v>
+        <v>178.6836977454787</v>
       </c>
       <c r="K8" t="n">
-        <v>423.3988649571602</v>
+        <v>423.3988649571596</v>
       </c>
       <c r="L8" t="n">
-        <v>763.8914309364984</v>
+        <v>763.8914309364968</v>
       </c>
       <c r="M8" t="n">
-        <v>1174.424453926404</v>
+        <v>1174.424453926402</v>
       </c>
       <c r="N8" t="n">
-        <v>1596.21413880618</v>
+        <v>1596.214138806178</v>
       </c>
       <c r="O8" t="n">
-        <v>1981.162916443392</v>
+        <v>1981.162916443389</v>
       </c>
       <c r="P8" t="n">
-        <v>2275.206791193064</v>
+        <v>2275.206791193061</v>
       </c>
       <c r="Q8" t="n">
-        <v>2447.848748775765</v>
+        <v>2447.848748775761</v>
       </c>
       <c r="R8" t="n">
-        <v>2462.864029927781</v>
+        <v>2462.864029927778</v>
       </c>
       <c r="S8" t="n">
-        <v>2462.864029927781</v>
+        <v>2336.286980664532</v>
       </c>
       <c r="T8" t="n">
-        <v>2462.864029927781</v>
+        <v>2336.286980664532</v>
       </c>
       <c r="U8" t="n">
-        <v>2462.864029927781</v>
+        <v>2082.699327395824</v>
       </c>
       <c r="V8" t="n">
-        <v>2131.801142584211</v>
+        <v>1751.636440052253</v>
       </c>
       <c r="W8" t="n">
-        <v>1779.032487314096</v>
+        <v>1398.867784782139</v>
       </c>
       <c r="X8" t="n">
-        <v>1405.566729053017</v>
+        <v>1398.867784782139</v>
       </c>
       <c r="Y8" t="n">
-        <v>1015.427397077205</v>
+        <v>1398.867784782139</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3026180839896</v>
+        <v>830.8292430227343</v>
       </c>
       <c r="C9" t="n">
         <v>756.8495888028626</v>
@@ -4869,64 +4869,64 @@
         <v>448.6777241361558</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1431661630408</v>
+        <v>302.1431661630407</v>
       </c>
       <c r="G9" t="n">
         <v>165.3976641548101</v>
       </c>
       <c r="H9" t="n">
-        <v>71.20257306658557</v>
+        <v>71.20257306658554</v>
       </c>
       <c r="I9" t="n">
-        <v>49.25728059855562</v>
+        <v>49.25728059855555</v>
       </c>
       <c r="J9" t="n">
-        <v>232.3550460215536</v>
+        <v>107.5249210345487</v>
       </c>
       <c r="K9" t="n">
-        <v>570.6893016133304</v>
+        <v>547.0890086402603</v>
       </c>
       <c r="L9" t="n">
-        <v>856.0099174132449</v>
+        <v>832.4096244401746</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.322486519984</v>
+        <v>1184.722193546914</v>
       </c>
       <c r="N9" t="n">
-        <v>1584.368365907958</v>
+        <v>1560.768072934888</v>
       </c>
       <c r="O9" t="n">
-        <v>1906.157083823474</v>
+        <v>1882.556790850403</v>
       </c>
       <c r="P9" t="n">
-        <v>2145.087833101897</v>
+        <v>2353.064347960384</v>
       </c>
       <c r="Q9" t="n">
-        <v>2462.864029927781</v>
+        <v>2462.864029927778</v>
       </c>
       <c r="R9" t="n">
-        <v>2462.864029927781</v>
+        <v>2462.864029927778</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.796572008852</v>
+        <v>2326.323196947597</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.612223915918</v>
+        <v>2132.138848854663</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.519219034489</v>
+        <v>1904.045843973233</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.367110802746</v>
+        <v>1668.893735741491</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.129754074544</v>
+        <v>1414.656379013289</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.278253869011</v>
+        <v>1206.804878807756</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.517955104058</v>
+        <v>999.0445800428024</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.25728059855562</v>
+        <v>645.0974530170125</v>
       </c>
       <c r="C10" t="n">
-        <v>49.25728059855562</v>
+        <v>476.1612700891056</v>
       </c>
       <c r="D10" t="n">
-        <v>49.25728059855562</v>
+        <v>326.0446306767699</v>
       </c>
       <c r="E10" t="n">
-        <v>49.25728059855562</v>
+        <v>178.1315370943768</v>
       </c>
       <c r="F10" t="n">
-        <v>49.25728059855562</v>
+        <v>178.1315370943768</v>
       </c>
       <c r="G10" t="n">
-        <v>49.25728059855562</v>
+        <v>49.25728059855555</v>
       </c>
       <c r="H10" t="n">
-        <v>49.25728059855562</v>
+        <v>49.25728059855555</v>
       </c>
       <c r="I10" t="n">
-        <v>49.25728059855562</v>
+        <v>49.25728059855555</v>
       </c>
       <c r="J10" t="n">
-        <v>72.16504971834912</v>
+        <v>72.16504971834898</v>
       </c>
       <c r="K10" t="n">
-        <v>239.6463880843689</v>
+        <v>239.6463880843687</v>
       </c>
       <c r="L10" t="n">
-        <v>509.4912739892002</v>
+        <v>509.4912739891998</v>
       </c>
       <c r="M10" t="n">
-        <v>804.39399422551</v>
+        <v>804.3939942255095</v>
       </c>
       <c r="N10" t="n">
-        <v>1097.719203336443</v>
+        <v>1097.719203336442</v>
       </c>
       <c r="O10" t="n">
-        <v>1352.636214496743</v>
+        <v>1352.636214496742</v>
       </c>
       <c r="P10" t="n">
-        <v>1547.241073590001</v>
+        <v>1547.24107359</v>
       </c>
       <c r="Q10" t="n">
-        <v>1598.540310708659</v>
+        <v>1598.540310708658</v>
       </c>
       <c r="R10" t="n">
-        <v>1494.294832793708</v>
+        <v>1598.540310708658</v>
       </c>
       <c r="S10" t="n">
-        <v>1297.021889455727</v>
+        <v>1598.540310708658</v>
       </c>
       <c r="T10" t="n">
-        <v>1223.78953371319</v>
+        <v>1598.540310708658</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.78953371319</v>
+        <v>1309.419956951157</v>
       </c>
       <c r="V10" t="n">
-        <v>969.1050455073034</v>
+        <v>1054.73546874527</v>
       </c>
       <c r="W10" t="n">
-        <v>679.6878754703428</v>
+        <v>1054.73546874527</v>
       </c>
       <c r="X10" t="n">
-        <v>451.6983245723254</v>
+        <v>826.7459178472523</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.9057454287953</v>
+        <v>826.7459178472523</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409636</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200284</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>240.4596049779263</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>698.3321947254768</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M12" t="n">
-        <v>698.3321947254768</v>
+        <v>1162.986701793413</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.428158124813</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O12" t="n">
-        <v>1867.304633125007</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P12" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.4953365361201</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>782.5591536082133</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>632.4425141958775</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>484.5294206134844</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.103803336028</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.027589650755</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.343101444868</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.925931407907</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.93638050989</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.14380136636</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,16 +5887,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5966,43 +5966,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9796239950296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,22 +6543,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,10 +6734,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6786,10 +6786,10 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6841,13 +6841,13 @@
         <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,16 +7667,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58.78819318392613</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704256053088926</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>60.49244923701495</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>127.2770751262504</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.419244967769966</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>162.2128814429472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>233.9159675066246</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.64794344562326</v>
+        <v>23.64794344562333</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7301045773611</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>126.8449921489595</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>157.8315260226345</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>59.95550615191331</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>109.4141571747216</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.53913544618428</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.912553496166593</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>71.37609769789877</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>31.43762041328876</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.29152613729354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.29152613728979</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>204.3427430993642</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1231405.979328145</v>
+        <v>1231405.979328146</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153331.963116584</v>
+        <v>153331.9631165839</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>180602.948618557</v>
       </c>
       <c r="F2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="G2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="G2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302514</v>
@@ -26335,10 +26335,10 @@
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302515</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,10 +26347,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26366,16 +26366,16 @@
         <v>657366.2625808548</v>
       </c>
       <c r="C3" t="n">
-        <v>21526.81581402957</v>
+        <v>21526.81581402936</v>
       </c>
       <c r="D3" t="n">
-        <v>366023.5773916717</v>
+        <v>366023.5773916711</v>
       </c>
       <c r="E3" t="n">
-        <v>519482.318215739</v>
+        <v>519482.3182157403</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504171</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66741.55862136454</v>
+        <v>66741.55862136451</v>
       </c>
       <c r="K3" t="n">
         <v>2220.700322863238</v>
       </c>
       <c r="L3" t="n">
-        <v>108516.2884397836</v>
+        <v>108516.2884397833</v>
       </c>
       <c r="M3" t="n">
-        <v>135673.9550018713</v>
+        <v>135673.9550018718</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172398.6150778688</v>
+        <v>172398.6150778687</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>141555.4547324716</v>
+        <v>141555.4547324719</v>
       </c>
       <c r="E4" t="n">
-        <v>8110.779805506621</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731987</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731951</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426732002</v>
+        <v>8117.312426732007</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982547</v>
+      </c>
+      <c r="M4" t="n">
         <v>16108.17168982543</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982546</v>
-      </c>
       <c r="N4" t="n">
-        <v>16108.1716898255</v>
+        <v>16108.17168982548</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982551</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982551</v>
+        <v>16108.17168982543</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90983.34588882298</v>
+        <v>90983.34588882292</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-738507.4845072462</v>
+        <v>-738856.4004528337</v>
       </c>
       <c r="C6" t="n">
-        <v>-146594.0881970634</v>
+        <v>-146594.0881970632</v>
       </c>
       <c r="D6" t="n">
-        <v>-413827.9797935025</v>
+        <v>-413827.9797935021</v>
       </c>
       <c r="E6" t="n">
-        <v>-447132.277916527</v>
+        <v>-447178.1829120941</v>
       </c>
       <c r="F6" t="n">
-        <v>60915.87956457054</v>
+        <v>60881.14163913549</v>
       </c>
       <c r="G6" t="n">
-        <v>72368.14267961228</v>
+        <v>72333.40475417656</v>
       </c>
       <c r="H6" t="n">
-        <v>72368.14267961231</v>
+        <v>72333.40475417659</v>
       </c>
       <c r="I6" t="n">
-        <v>72368.14267961234</v>
+        <v>72333.40475417662</v>
       </c>
       <c r="J6" t="n">
-        <v>5626.584058247681</v>
+        <v>5591.846132812061</v>
       </c>
       <c r="K6" t="n">
-        <v>70147.44235674903</v>
+        <v>70112.70443131342</v>
       </c>
       <c r="L6" t="n">
-        <v>-43054.17776406078</v>
+        <v>-43054.17776406062</v>
       </c>
       <c r="M6" t="n">
-        <v>-70211.84432614851</v>
+        <v>-70211.844326149</v>
       </c>
       <c r="N6" t="n">
-        <v>62385.09332001793</v>
+        <v>62385.093320018</v>
       </c>
       <c r="O6" t="n">
-        <v>65462.11067572281</v>
+        <v>65462.11067572277</v>
       </c>
       <c r="P6" t="n">
-        <v>65462.1106757227</v>
+        <v>65462.1106757228</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>913.7712217394821</v>
+        <v>913.7712217394816</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>615.7160074819453</v>
+        <v>615.7160074819444</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5789134314133</v>
+        <v>20.57891343141307</v>
       </c>
       <c r="D3" t="n">
-        <v>299.7162079700038</v>
+        <v>299.7162079700034</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2698269769032</v>
+        <v>444.2698269769043</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>8.628502078203894</v>
       </c>
       <c r="D4" t="n">
-        <v>352.0021274804392</v>
+        <v>352.0021274804383</v>
       </c>
       <c r="E4" t="n">
-        <v>544.4292828440607</v>
+        <v>544.4292828440625</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>8.628502078204122</v>
       </c>
       <c r="L4" t="n">
-        <v>352.002127480439</v>
+        <v>352.002127480438</v>
       </c>
       <c r="M4" t="n">
-        <v>544.4292828440607</v>
+        <v>544.4292828440625</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>352.0021274804392</v>
+        <v>352.0021274804383</v>
       </c>
       <c r="M4" t="n">
-        <v>544.4292828440607</v>
+        <v>544.4292828440625</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.00373708611949</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>96.36416211488792</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>1.227240295313585</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>51.73931139605867</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>89.05895538813931</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27670,19 +27670,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>204.4634984684912</v>
+        <v>70.1044286934532</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>129.5414986646173</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>104.4763300640636</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>164.6866908504584</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>207.783159542597</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.8540603081713</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>68.85512564634001</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.3112787706134</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.0153127875903</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0517767360208</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>99.46864131064277</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>99.46864131063865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3431951881089</v>
+        <v>38.75768125724588</v>
       </c>
       <c r="H10" t="n">
         <v>147.5768732474197</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>103.2030231358011</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.300213904602</v>
       </c>
       <c r="T10" t="n">
-        <v>148.4050248789485</v>
+        <v>220.9050570640593</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2291502199263</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30037,10 +30037,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30748,10 +30748,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.673452147696408</v>
+        <v>3.673452147696405</v>
       </c>
       <c r="H8" t="n">
-        <v>37.62074180759585</v>
+        <v>37.62074180759582</v>
       </c>
       <c r="I8" t="n">
-        <v>141.6207639240659</v>
+        <v>141.6207639240658</v>
       </c>
       <c r="J8" t="n">
-        <v>311.7796592205483</v>
+        <v>311.7796592205481</v>
       </c>
       <c r="K8" t="n">
-        <v>467.2768886325373</v>
+        <v>467.276888632537</v>
       </c>
       <c r="L8" t="n">
-        <v>579.6982997976014</v>
+        <v>579.6982997976011</v>
       </c>
       <c r="M8" t="n">
-        <v>645.0260544291973</v>
+        <v>645.026054429197</v>
       </c>
       <c r="N8" t="n">
-        <v>655.4632503438398</v>
+        <v>655.4632503438394</v>
       </c>
       <c r="O8" t="n">
-        <v>618.9353605501836</v>
+        <v>618.9353605501832</v>
       </c>
       <c r="P8" t="n">
-        <v>528.2470106539284</v>
+        <v>528.2470106539281</v>
       </c>
       <c r="Q8" t="n">
-        <v>396.6915056145507</v>
+        <v>396.6915056145505</v>
       </c>
       <c r="R8" t="n">
-        <v>230.7524884727347</v>
+        <v>230.7524884727345</v>
       </c>
       <c r="S8" t="n">
-        <v>83.70879081563197</v>
+        <v>83.70879081563193</v>
       </c>
       <c r="T8" t="n">
-        <v>16.08053677654103</v>
+        <v>16.08053677654102</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2938761718157126</v>
+        <v>0.2938761718157124</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.965470175062282</v>
+        <v>1.965470175062281</v>
       </c>
       <c r="H9" t="n">
-        <v>18.98230405915415</v>
+        <v>18.98230405915414</v>
       </c>
       <c r="I9" t="n">
-        <v>67.67079330806543</v>
+        <v>67.67079330806538</v>
       </c>
       <c r="J9" t="n">
-        <v>185.6938291272659</v>
+        <v>185.6938291272658</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3803308564388</v>
+        <v>317.3803308564387</v>
       </c>
       <c r="L9" t="n">
-        <v>426.7570220020101</v>
+        <v>426.7570220020098</v>
       </c>
       <c r="M9" t="n">
-        <v>498.0053158480177</v>
+        <v>498.0053158480174</v>
       </c>
       <c r="N9" t="n">
-        <v>511.1860346974486</v>
+        <v>511.1860346974483</v>
       </c>
       <c r="O9" t="n">
-        <v>467.6353534500159</v>
+        <v>467.6353534500157</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3185986046564</v>
+        <v>375.3185986046562</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.8905437500556</v>
+        <v>250.8905437500554</v>
       </c>
       <c r="R9" t="n">
-        <v>122.0315605183407</v>
+        <v>122.0315605183406</v>
       </c>
       <c r="S9" t="n">
-        <v>36.50774645345948</v>
+        <v>36.50774645345945</v>
       </c>
       <c r="T9" t="n">
-        <v>7.922224082816828</v>
+        <v>7.922224082816824</v>
       </c>
       <c r="U9" t="n">
         <v>0.1293072483593607</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.647784170349886</v>
+        <v>1.647784170349885</v>
       </c>
       <c r="H10" t="n">
-        <v>14.6502992600199</v>
+        <v>14.65029926001989</v>
       </c>
       <c r="I10" t="n">
-        <v>49.5533639592493</v>
+        <v>49.55336395924927</v>
       </c>
       <c r="J10" t="n">
-        <v>116.4983408437369</v>
+        <v>116.4983408437368</v>
       </c>
       <c r="K10" t="n">
-        <v>191.4425608824685</v>
+        <v>191.4425608824684</v>
       </c>
       <c r="L10" t="n">
-        <v>244.9805665627458</v>
+        <v>244.9805665627456</v>
       </c>
       <c r="M10" t="n">
-        <v>258.2976586303916</v>
+        <v>258.2976586303914</v>
       </c>
       <c r="N10" t="n">
-        <v>252.155917631815</v>
+        <v>252.1559176318148</v>
       </c>
       <c r="O10" t="n">
-        <v>232.9068025509094</v>
+        <v>232.9068025509092</v>
       </c>
       <c r="P10" t="n">
-        <v>199.2920054757715</v>
+        <v>199.2920054757714</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.9794544826618</v>
+        <v>137.9794544826617</v>
       </c>
       <c r="R10" t="n">
-        <v>74.09036824136848</v>
+        <v>74.09036824136842</v>
       </c>
       <c r="S10" t="n">
-        <v>28.71638413237027</v>
+        <v>28.71638413237025</v>
       </c>
       <c r="T10" t="n">
-        <v>7.040532364222237</v>
+        <v>7.040532364222233</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08987913656453932</v>
+        <v>0.08987913656453926</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>601.0519451814403</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>749.8782565190762</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33263,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34708,16 +34708,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>255.0853779233022</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>173.5921604136541</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>95.82994420832314</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>195.5678020589343</v>
       </c>
       <c r="L3" t="n">
         <v>138.615755571408</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.38585224249419</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.733754693862</v>
+        <v>130.7337546938618</v>
       </c>
       <c r="K8" t="n">
-        <v>247.1870375875567</v>
+        <v>247.1870375875565</v>
       </c>
       <c r="L8" t="n">
-        <v>343.9318848276142</v>
+        <v>343.9318848276138</v>
       </c>
       <c r="M8" t="n">
-        <v>414.6798212019246</v>
+        <v>414.6798212019243</v>
       </c>
       <c r="N8" t="n">
-        <v>426.0501867472489</v>
+        <v>426.0501867472485</v>
       </c>
       <c r="O8" t="n">
-        <v>388.8371491284969</v>
+        <v>388.8371491284964</v>
       </c>
       <c r="P8" t="n">
-        <v>297.0140148986589</v>
+        <v>297.0140148986586</v>
       </c>
       <c r="Q8" t="n">
-        <v>174.3858157401013</v>
+        <v>174.385815740101</v>
       </c>
       <c r="R8" t="n">
-        <v>15.16695065860256</v>
+        <v>15.16695065860242</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>184.9472378010081</v>
+        <v>58.85620246059912</v>
       </c>
       <c r="K9" t="n">
-        <v>341.751773325027</v>
+        <v>444.0041288946583</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2026422221359</v>
+        <v>288.2026422221356</v>
       </c>
       <c r="M9" t="n">
-        <v>355.8712819259994</v>
+        <v>355.8712819259991</v>
       </c>
       <c r="N9" t="n">
-        <v>379.8443226141153</v>
+        <v>379.844322614115</v>
       </c>
       <c r="O9" t="n">
-        <v>325.0391090055715</v>
+        <v>325.0391090055712</v>
       </c>
       <c r="P9" t="n">
-        <v>241.3441911903262</v>
+        <v>475.2601586969505</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9860573998832</v>
+        <v>110.9087696640339</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.13916072706414</v>
+        <v>23.13916072706407</v>
       </c>
       <c r="K10" t="n">
-        <v>169.1730690565856</v>
+        <v>169.1730690565855</v>
       </c>
       <c r="L10" t="n">
-        <v>272.5705918230619</v>
+        <v>272.5705918230618</v>
       </c>
       <c r="M10" t="n">
-        <v>297.8815355922322</v>
+        <v>297.881535592232</v>
       </c>
       <c r="N10" t="n">
-        <v>296.2880900110436</v>
+        <v>296.2880900110434</v>
       </c>
       <c r="O10" t="n">
-        <v>257.4919304649491</v>
+        <v>257.491930464949</v>
       </c>
       <c r="P10" t="n">
-        <v>196.570564740665</v>
+        <v>196.5705647406649</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.81741123096741</v>
+        <v>51.81741123096732</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>462.4975654015661</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>618.5365444357429</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970737</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
